--- a/biology/Histoire de la zoologie et de la botanique/Otto_Wilhelm_Thomé/Otto_Wilhelm_Thomé.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Otto_Wilhelm_Thomé/Otto_Wilhelm_Thomé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Otto_Wilhelm_Thom%C3%A9</t>
+          <t>Otto_Wilhelm_Thomé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Wilhelm Thomé, né en 1840 à Cologne et mort en 1925, est un botaniste allemand qui fut également célèbre en tant qu'illustrateur en publiant son ouvrage illustré Flora von Deutschland, Österreich und der Schweiz in Wort und Bild für Schule und Haus (Flore d'Allemagne, d'Autriche et de Suisse en texte et en image pour l'école et la maison) dont la première édition paraît en quatre tomes avec 571 planches illustrées à Gera en 1885. Les huit tomes suivants de la seconde édition paraissent en 1903 avec la collaboration de Walter Migula.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Otto_Wilhelm_Thom%C3%A9</t>
+          <t>Otto_Wilhelm_Thomé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Rosa canina L.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Otto_Wilhelm_Thom%C3%A9</t>
+          <t>Otto_Wilhelm_Thomé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(Piperaceae) Peperomia thomeana C.DC.[1]
-(Rubiaceae) Ixora thomeana (K.Schum.) G.Taylor[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Piperaceae) Peperomia thomeana C.DC.
+(Rubiaceae) Ixora thomeana (K.Schum.) G.Taylor</t>
         </is>
       </c>
     </row>
